--- a/creditwatch_small_medium_company_template - Copy.xlsx
+++ b/creditwatch_small_medium_company_template - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\103763\Projects\HELLO_CREDIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4E8D54-D136-4045-BFF3-C783CB1AEB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14B6BF4-E17A-45D9-BAA1-4F46C3ABEC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1620" windowWidth="29040" windowHeight="16440" xr2:uid="{17FC7109-3CB4-4C54-A69A-44990A60503A}"/>
+    <workbookView xWindow="-28800" yWindow="-1500" windowWidth="14400" windowHeight="16200" xr2:uid="{17FC7109-3CB4-4C54-A69A-44990A60503A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Metric Category</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>sales_growth</t>
+  </si>
+  <si>
+    <t>return_on_assets</t>
   </si>
 </sst>
 </file>
@@ -100,18 +103,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,10 +123,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,22 +460,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F925A46-85EF-47C6-84BF-99B5123C7533}">
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="11" bestFit="1" customWidth="1"/>
     <col min="17" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,50 +515,22 @@
       <c r="K1" s="1">
         <v>39629</v>
       </c>
-      <c r="L1" s="1">
-        <v>39994</v>
-      </c>
-      <c r="M1" s="1">
-        <v>40359</v>
-      </c>
-      <c r="N1" s="1">
-        <v>40724</v>
-      </c>
-      <c r="O1" s="1">
-        <v>41090</v>
-      </c>
-      <c r="P1" s="1">
-        <v>41455</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>41820</v>
-      </c>
-      <c r="R1" s="1">
-        <v>42185</v>
-      </c>
-      <c r="S1" s="1">
-        <v>42643</v>
-      </c>
-      <c r="T1" s="1">
-        <v>43008</v>
-      </c>
-      <c r="U1" s="1">
-        <v>43373</v>
-      </c>
-      <c r="V1" s="1">
-        <v>43738</v>
-      </c>
-      <c r="W1" s="1">
-        <v>44104</v>
-      </c>
-      <c r="X1" s="1">
-        <v>44469</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>44834</v>
-      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -564,298 +538,283 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.69427700000000003</v>
+        <v>4.0025000000000004</v>
       </c>
       <c r="D2">
-        <v>0.54148000000000007</v>
+        <v>0.32590000000000002</v>
       </c>
       <c r="E2">
-        <v>0.51323700000000005</v>
+        <v>0.1721</v>
       </c>
       <c r="F2">
-        <v>0.58201599999999998</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="G2">
-        <v>0.51854999999999996</v>
+        <v>0.28839999999999999</v>
       </c>
       <c r="H2">
-        <v>0.17954699999999998</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="I2">
-        <v>0.85167300000000001</v>
+        <v>0.50690000000000002</v>
       </c>
       <c r="J2">
-        <v>0.65493599999999996</v>
+        <v>0.42920000000000003</v>
       </c>
       <c r="K2">
-        <v>0.67500699999999991</v>
+        <v>0.36959999999999998</v>
       </c>
       <c r="L2">
-        <v>0.70530400000000004</v>
+        <v>0.33839999999999998</v>
       </c>
       <c r="M2">
-        <v>0.67802400000000007</v>
+        <v>0.32379999999999998</v>
       </c>
       <c r="N2">
-        <v>0.74697500000000006</v>
+        <v>0.317</v>
       </c>
       <c r="O2">
-        <v>0.76600099999999993</v>
+        <v>0.25019999999999998</v>
       </c>
       <c r="P2">
-        <v>0.79858599999999991</v>
+        <v>0.22289999999999999</v>
       </c>
       <c r="Q2">
-        <v>0.73399300000000001</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.35150399999999998</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1.346962</v>
+        <v>1.823</v>
       </c>
       <c r="T2">
-        <v>4.5708130000000002</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>16.209047999999999</v>
-      </c>
-      <c r="V2" s="2">
-        <v>5.61958175</v>
-      </c>
-      <c r="W2" s="2">
-        <v>5.61958175</v>
-      </c>
-      <c r="X2" s="2">
-        <v>5.61958175</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>5.61958175</v>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>74.950800000000001</v>
+      </c>
+      <c r="X2">
+        <v>64.522400000000005</v>
+      </c>
+      <c r="Y2">
+        <v>68.198400000000007</v>
+      </c>
+      <c r="Z2">
+        <v>81.849000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>3.3666</v>
+        <v>0.36919999999999997</v>
       </c>
       <c r="D3">
-        <v>2.9485000000000001</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="E3">
-        <v>2.4744999999999999</v>
+        <v>4.3E-3</v>
       </c>
       <c r="F3">
-        <v>2.2574999999999998</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="G3">
-        <v>1.9345000000000001</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="H3">
-        <v>0.74</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="I3">
-        <v>3.5468999999999999</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="J3">
-        <v>3.0053999999999998</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="K3">
-        <v>3.0251999999999999</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="L3">
-        <v>2.9992999999999999</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="M3">
-        <v>3.3896000000000002</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="N3">
-        <v>4.8311000000000002</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="O3">
-        <v>4.2058</v>
+        <v>5.3E-3</v>
       </c>
       <c r="P3">
-        <v>4.7332000000000001</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="Q3">
-        <v>3.8616000000000001</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>3.2351000000000001</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>12.9589</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="T3">
-        <v>66.804199999999994</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>16.544599999999999</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>22.923400000000001</v>
-      </c>
-      <c r="W3" s="2">
-        <v>25.824099999999998</v>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1.8456999999999999</v>
       </c>
       <c r="X3">
-        <v>25.943999999999999</v>
+        <v>1.1866000000000001</v>
       </c>
       <c r="Y3">
-        <v>9.7695000000000007</v>
+        <v>1.2861</v>
+      </c>
+      <c r="Z3">
+        <v>2.5632999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>3.8652000000000002</v>
+        <v>2.0367999999999999</v>
       </c>
       <c r="D4">
-        <v>4.8198999999999996</v>
+        <v>18.933599999999998</v>
       </c>
       <c r="E4">
-        <v>7.0297000000000001</v>
+        <v>203.1386</v>
       </c>
       <c r="F4">
-        <v>6.4572000000000003</v>
+        <v>126.7042</v>
       </c>
       <c r="G4">
-        <v>6.4744999999999999</v>
+        <v>140.5712</v>
       </c>
       <c r="H4">
-        <v>5.7827999999999999</v>
+        <v>209.09299999999999</v>
       </c>
       <c r="I4">
-        <v>4.5831999999999997</v>
+        <v>117.67740000000001</v>
       </c>
       <c r="J4">
-        <v>3.6629</v>
+        <v>84.002399999999994</v>
       </c>
       <c r="K4">
-        <v>3.7094</v>
+        <v>90.109099999999998</v>
       </c>
       <c r="L4">
-        <v>3.0118</v>
+        <v>157.5633</v>
       </c>
       <c r="M4">
-        <v>3.0072000000000001</v>
+        <v>50.5535</v>
       </c>
       <c r="N4">
-        <v>3.0306999999999999</v>
+        <v>419.30110000000002</v>
       </c>
       <c r="O4">
-        <v>3.9186000000000001</v>
+        <v>659.02549999999997</v>
       </c>
       <c r="P4">
-        <v>4.3901000000000003</v>
+        <v>330.05799999999999</v>
       </c>
       <c r="Q4">
-        <v>5.2548000000000004</v>
+        <v>456.32870000000003</v>
       </c>
       <c r="R4">
-        <v>6.1303000000000001</v>
+        <v>332.17689999999999</v>
       </c>
       <c r="S4">
-        <v>1.8617999999999999</v>
+        <v>658.20799999999997</v>
       </c>
       <c r="T4">
-        <v>0.41449999999999998</v>
+        <v>199.28450000000001</v>
       </c>
       <c r="U4">
-        <v>1.5622</v>
+        <v>216.72989999999999</v>
       </c>
       <c r="V4">
-        <v>0.45929999999999999</v>
+        <v>166.33009999999999</v>
       </c>
       <c r="W4">
-        <v>-0.1847</v>
+        <v>4.5694999999999997</v>
       </c>
       <c r="X4">
-        <v>0.48959999999999998</v>
+        <v>8.6593999999999998</v>
       </c>
       <c r="Y4">
-        <v>1.1713</v>
+        <v>7.7602000000000002</v>
+      </c>
+      <c r="Z4">
+        <v>4.0038999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>0.70930000000000004</v>
-      </c>
-      <c r="D5">
-        <v>0.54830000000000001</v>
-      </c>
-      <c r="E5">
-        <v>0.5706</v>
-      </c>
-      <c r="F5">
-        <v>0.62519999999999998</v>
-      </c>
-      <c r="G5">
-        <v>0.56559999999999999</v>
-      </c>
-      <c r="H5">
-        <v>0.41649999999999998</v>
-      </c>
-      <c r="I5">
-        <v>3.4809000000000001</v>
-      </c>
-      <c r="J5">
-        <v>1.8991</v>
-      </c>
       <c r="K5">
-        <v>-36.877600000000001</v>
+        <v>0.6841343942325373</v>
       </c>
       <c r="L5">
-        <v>8.1914999999999996</v>
+        <v>0.65541212983074271</v>
       </c>
       <c r="M5">
-        <v>3.2486000000000002</v>
+        <v>0.70831351275863108</v>
       </c>
       <c r="N5">
-        <v>-13.984</v>
+        <v>0.445636098012899</v>
       </c>
       <c r="O5">
-        <v>-6.72</v>
+        <v>0.50550499076354516</v>
       </c>
       <c r="P5">
-        <v>-13.9618</v>
+        <v>0.68215163768962395</v>
       </c>
       <c r="Q5">
-        <v>3.8491</v>
+        <v>0.66262233230878242</v>
       </c>
       <c r="R5">
-        <v>1.5972999999999999</v>
+        <v>0.68849633392281884</v>
       </c>
       <c r="S5">
-        <v>-1.5709</v>
+        <v>0.64673456171316968</v>
       </c>
       <c r="T5">
-        <v>-1.5101</v>
+        <v>0.71849062202316061</v>
       </c>
       <c r="U5">
-        <v>-1.5207999999999999</v>
+        <v>0.46741264130887383</v>
       </c>
       <c r="V5">
-        <v>-1.363</v>
+        <v>1.174416880799559</v>
       </c>
       <c r="W5">
-        <v>-1.3286</v>
+        <v>0.80100318325882436</v>
       </c>
       <c r="X5">
-        <v>-1.2899</v>
+        <v>0.61830023410396717</v>
       </c>
       <c r="Y5">
-        <v>-1.2007000000000001</v>
+        <v>0.69506481505332018</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -889,50 +848,8 @@
       <c r="K6">
         <v>0.95389999999999997</v>
       </c>
-      <c r="L6">
-        <v>0.91110000000000002</v>
-      </c>
-      <c r="M6">
-        <v>0.63449999999999995</v>
-      </c>
-      <c r="N6">
-        <v>0.54449999999999998</v>
-      </c>
-      <c r="O6">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="P6">
-        <v>0.65710000000000002</v>
-      </c>
-      <c r="Q6">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="R6">
-        <v>0.53049999999999997</v>
-      </c>
-      <c r="S6">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="T6">
-        <v>0.64849999999999997</v>
-      </c>
-      <c r="U6">
-        <v>0.67510000000000003</v>
-      </c>
-      <c r="V6">
-        <v>0.52110000000000001</v>
-      </c>
-      <c r="W6">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="X6">
-        <v>0.65339999999999998</v>
-      </c>
-      <c r="Y6">
-        <v>0.72950000000000004</v>
-      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -963,124 +880,85 @@
       <c r="K7">
         <v>12.327500000000001</v>
       </c>
-      <c r="L7">
-        <v>9.3514999999999997</v>
-      </c>
-      <c r="M7">
-        <v>12.7281</v>
-      </c>
-      <c r="N7">
-        <v>20.476299999999998</v>
-      </c>
-      <c r="O7">
-        <v>18.006599999999999</v>
-      </c>
-      <c r="P7">
-        <v>16.793299999999999</v>
-      </c>
-      <c r="Q7">
-        <v>15.724600000000001</v>
-      </c>
-      <c r="R7">
-        <v>19.810600000000001</v>
-      </c>
-      <c r="S7">
-        <v>16.081800000000001</v>
-      </c>
-      <c r="T7">
-        <v>20.459499999999998</v>
-      </c>
-      <c r="U7">
-        <v>18.845600000000001</v>
-      </c>
-      <c r="V7">
-        <v>26.397300000000001</v>
-      </c>
-      <c r="W7">
-        <v>15.8248</v>
-      </c>
-      <c r="X7">
-        <v>15.936</v>
-      </c>
-      <c r="Y7">
-        <v>20.197399999999998</v>
-      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>14.6341</v>
+        <v>5.6924000000000001</v>
       </c>
       <c r="D8">
-        <v>17.0031</v>
+        <v>19.849299999999999</v>
       </c>
       <c r="E8">
-        <v>10.328799999999999</v>
+        <v>29.317399999999999</v>
       </c>
       <c r="F8">
-        <v>19.549700000000001</v>
+        <v>22.316700000000001</v>
       </c>
       <c r="G8">
-        <v>26.9635</v>
+        <v>24.4129</v>
       </c>
       <c r="H8">
-        <v>17.973400000000002</v>
+        <v>21.7653</v>
       </c>
       <c r="I8">
-        <v>14.607799999999999</v>
+        <v>14.7821</v>
       </c>
       <c r="J8">
-        <v>9.766</v>
+        <v>9.6277000000000008</v>
       </c>
       <c r="K8">
-        <v>8.3038000000000007</v>
+        <v>23.7653</v>
       </c>
       <c r="L8">
-        <v>8.6476000000000006</v>
+        <v>20.259</v>
       </c>
       <c r="M8">
-        <v>8.7774000000000001</v>
+        <v>29.135100000000001</v>
       </c>
       <c r="N8">
-        <v>6.2426000000000004</v>
+        <v>33.7256</v>
       </c>
       <c r="O8">
-        <v>6.0205000000000002</v>
+        <v>25.3338</v>
       </c>
       <c r="P8">
-        <v>5.6048999999999998</v>
+        <v>5.9843999999999999</v>
       </c>
       <c r="Q8">
-        <v>8.0768000000000004</v>
+        <v>26.922000000000001</v>
       </c>
       <c r="R8">
-        <v>12.0905</v>
+        <v>30.777000000000001</v>
       </c>
       <c r="S8">
-        <v>3.2677</v>
+        <v>21.926100000000002</v>
       </c>
       <c r="T8">
-        <v>4.1302000000000003</v>
+        <v>21.582799999999999</v>
       </c>
       <c r="U8">
-        <v>7.7885999999999997</v>
+        <v>22.161200000000001</v>
       </c>
       <c r="V8">
-        <v>12.293699999999999</v>
+        <v>14.7735</v>
       </c>
       <c r="W8">
-        <v>15.136200000000001</v>
+        <v>30.7547</v>
       </c>
       <c r="X8">
-        <v>20.952200000000001</v>
+        <v>34.729999999999997</v>
       </c>
       <c r="Y8">
-        <v>8.5558999999999994</v>
+        <v>29.2117</v>
+      </c>
+      <c r="Z8">
+        <v>25.222100000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1088,221 +966,235 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>9.9666999999999994</v>
+        <v>0.88009999999999999</v>
       </c>
       <c r="D9">
-        <v>9.8373000000000008</v>
+        <v>3.3395000000000001</v>
       </c>
       <c r="E9">
-        <v>11.1502</v>
+        <v>3.6549999999999998</v>
       </c>
       <c r="F9">
-        <v>12.812200000000001</v>
+        <v>5.0053999999999998</v>
       </c>
       <c r="G9">
-        <v>16.454999999999998</v>
+        <v>5.8541999999999996</v>
       </c>
       <c r="H9">
-        <v>12.431900000000001</v>
+        <v>6.1055000000000001</v>
       </c>
       <c r="I9">
-        <v>10.164899999999999</v>
+        <v>5.8005000000000004</v>
       </c>
       <c r="J9">
-        <v>11.051</v>
+        <v>6.1703999999999999</v>
       </c>
       <c r="K9">
-        <v>12.276400000000001</v>
+        <v>6.4314</v>
       </c>
       <c r="L9">
-        <v>11.521800000000001</v>
+        <v>5.7976000000000001</v>
       </c>
       <c r="M9">
-        <v>15.242699999999999</v>
+        <v>5.3669000000000002</v>
       </c>
       <c r="N9">
-        <v>14.6678</v>
+        <v>5.2084000000000001</v>
       </c>
       <c r="O9">
-        <v>12.189500000000001</v>
+        <v>7.3734999999999999</v>
       </c>
       <c r="P9">
-        <v>11.5022</v>
+        <v>6.3403999999999998</v>
       </c>
       <c r="Q9">
-        <v>14.2156</v>
+        <v>6.7561999999999998</v>
       </c>
       <c r="R9">
-        <v>14.8605</v>
+        <v>7.5652999999999997</v>
       </c>
       <c r="S9">
-        <v>3.9243999999999999</v>
+        <v>7.8122999999999996</v>
       </c>
       <c r="T9">
-        <v>1.1446000000000001</v>
+        <v>7.7525000000000004</v>
       </c>
       <c r="U9">
-        <v>5.4919000000000002</v>
+        <v>6.6738999999999997</v>
       </c>
       <c r="V9">
-        <v>6.1470000000000002</v>
+        <v>6.4402999999999997</v>
       </c>
       <c r="W9">
-        <v>-2.7852000000000001</v>
+        <v>8.6724999999999994</v>
       </c>
       <c r="X9">
-        <v>5.6346999999999996</v>
+        <v>11.154199999999999</v>
       </c>
       <c r="Y9">
-        <v>13.432700000000001</v>
+        <v>11.2522</v>
+      </c>
+      <c r="Z9">
+        <v>5.8613999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10">
-        <v>13540.42375</v>
-      </c>
-      <c r="D10">
-        <v>14845.76275</v>
-      </c>
-      <c r="E10">
-        <v>14729.245999999999</v>
-      </c>
-      <c r="F10">
-        <v>19313.712249999997</v>
-      </c>
-      <c r="G10">
-        <v>31301.931500000002</v>
-      </c>
-      <c r="H10">
-        <v>53258.124499999998</v>
-      </c>
-      <c r="I10">
-        <v>61048.287999999993</v>
-      </c>
-      <c r="J10">
-        <v>68735.771999999997</v>
-      </c>
-      <c r="K10">
-        <v>80945.289250000002</v>
-      </c>
-      <c r="L10">
-        <v>88057.04075</v>
-      </c>
-      <c r="M10">
-        <v>106659.644</v>
-      </c>
-      <c r="N10">
-        <v>180046.22999999998</v>
-      </c>
-      <c r="O10">
-        <v>224801.91824999999</v>
-      </c>
-      <c r="P10">
-        <v>223559.65625</v>
-      </c>
-      <c r="Q10">
-        <v>243352.75999999998</v>
-      </c>
-      <c r="R10">
-        <v>404407.5</v>
-      </c>
-      <c r="S10">
-        <v>367920</v>
-      </c>
-      <c r="T10">
-        <v>306337.5</v>
-      </c>
-      <c r="U10">
-        <v>286475</v>
-      </c>
-      <c r="V10">
-        <v>255517.5</v>
-      </c>
-      <c r="W10">
-        <v>229267.5</v>
-      </c>
-      <c r="X10">
-        <v>263182.5</v>
-      </c>
-      <c r="Y10">
-        <v>232557.5</v>
-      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11">
-        <v>66.603800000000007</v>
+        <v>3.387</v>
       </c>
       <c r="D11">
-        <v>18.079599999999999</v>
+        <v>2.8222</v>
       </c>
       <c r="E11">
-        <v>51.307299999999998</v>
+        <v>14.2638</v>
       </c>
       <c r="F11">
-        <v>21.207000000000001</v>
+        <v>24.235600000000002</v>
       </c>
       <c r="G11">
-        <v>6.2675999999999998</v>
+        <v>17.2392</v>
       </c>
       <c r="H11">
-        <v>79.320700000000002</v>
+        <v>35.081800000000001</v>
       </c>
       <c r="I11">
-        <v>59.083100000000002</v>
+        <v>22.7043</v>
       </c>
       <c r="J11">
-        <v>13.4937</v>
+        <v>27.2271</v>
       </c>
       <c r="K11">
-        <v>31.603200000000001</v>
+        <v>17.2575</v>
       </c>
       <c r="L11">
-        <v>12.927099999999999</v>
+        <v>25.283799999999999</v>
       </c>
       <c r="M11">
-        <v>-30.189299999999999</v>
+        <v>5.9871999999999996</v>
       </c>
       <c r="N11">
-        <v>21.198499999999999</v>
+        <v>5.5567000000000002</v>
       </c>
       <c r="O11">
-        <v>86.2059</v>
+        <v>11.3376</v>
       </c>
       <c r="P11">
-        <v>22.2041</v>
+        <v>1.0601</v>
       </c>
       <c r="Q11">
-        <v>19.835000000000001</v>
+        <v>6.3404999999999996</v>
       </c>
       <c r="R11">
-        <v>17.6158</v>
+        <v>13.439500000000001</v>
       </c>
       <c r="S11">
-        <v>64.290099999999995</v>
+        <v>12.7004</v>
       </c>
       <c r="T11">
-        <v>-22.547999999999998</v>
+        <v>12.2265</v>
       </c>
       <c r="U11">
-        <v>-8.4687000000000001</v>
+        <v>4.9035000000000002</v>
       </c>
       <c r="V11">
-        <v>-29.4359</v>
+        <v>6.0206</v>
       </c>
       <c r="W11">
-        <v>-2.1067999999999998</v>
+        <v>-6.7489999999999997</v>
       </c>
       <c r="X11">
-        <v>16.381799999999998</v>
+        <v>25.0197</v>
       </c>
       <c r="Y11">
-        <v>12.400700000000001</v>
+        <v>-11.6564</v>
+      </c>
+      <c r="Z11">
+        <v>-4.4137000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>-0.4239</v>
+      </c>
+      <c r="D12">
+        <v>3.3950999999999998</v>
+      </c>
+      <c r="E12">
+        <v>6.5117000000000003</v>
+      </c>
+      <c r="F12">
+        <v>10.1806</v>
+      </c>
+      <c r="G12">
+        <v>10.0184</v>
+      </c>
+      <c r="H12">
+        <v>11.5374</v>
+      </c>
+      <c r="I12">
+        <v>9.9566999999999997</v>
+      </c>
+      <c r="J12">
+        <v>12.6219</v>
+      </c>
+      <c r="K12">
+        <v>12.1837</v>
+      </c>
+      <c r="L12">
+        <v>10.655900000000001</v>
+      </c>
+      <c r="M12">
+        <v>9.1503999999999994</v>
+      </c>
+      <c r="N12">
+        <v>7.5151000000000003</v>
+      </c>
+      <c r="O12">
+        <v>14.1206</v>
+      </c>
+      <c r="P12">
+        <v>12.2897</v>
+      </c>
+      <c r="Q12">
+        <v>11.3514</v>
+      </c>
+      <c r="R12">
+        <v>12.5891</v>
+      </c>
+      <c r="S12">
+        <v>13.2766</v>
+      </c>
+      <c r="T12">
+        <v>12.823499999999999</v>
+      </c>
+      <c r="U12">
+        <v>10.4955</v>
+      </c>
+      <c r="V12">
+        <v>10.304399999999999</v>
+      </c>
+      <c r="W12">
+        <v>5.1714000000000002</v>
+      </c>
+      <c r="X12">
+        <v>9.7193000000000005</v>
+      </c>
+      <c r="Y12">
+        <v>6.7846000000000002</v>
+      </c>
+      <c r="Z12">
+        <v>1.6476</v>
       </c>
     </row>
   </sheetData>
